--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fn1-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fn1-Sdc2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H2">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I2">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J2">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.511114</v>
+        <v>1.009860666666667</v>
       </c>
       <c r="N2">
-        <v>4.533342</v>
+        <v>3.029582</v>
       </c>
       <c r="O2">
-        <v>0.02241848840500565</v>
+        <v>0.01353413605720072</v>
       </c>
       <c r="P2">
-        <v>0.02483957450832654</v>
+        <v>0.01542521070970148</v>
       </c>
       <c r="Q2">
-        <v>37.35743844071801</v>
+        <v>29.49753086554378</v>
       </c>
       <c r="R2">
-        <v>336.216945966462</v>
+        <v>265.477777789894</v>
       </c>
       <c r="S2">
-        <v>0.0003005977189891952</v>
+        <v>0.000247606707620014</v>
       </c>
       <c r="T2">
-        <v>0.0003342980841611813</v>
+        <v>0.0002839516042692132</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H3">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I3">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J3">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>138.461282</v>
       </c>
       <c r="O3">
-        <v>0.6847250097299556</v>
+        <v>0.6185519418990597</v>
       </c>
       <c r="P3">
-        <v>0.7586719313825014</v>
+        <v>0.704979911415303</v>
       </c>
       <c r="Q3">
-        <v>1141.003440450311</v>
+        <v>1348.128533730977</v>
       </c>
       <c r="R3">
-        <v>10269.0309640528</v>
+        <v>12133.15680357879</v>
       </c>
       <c r="S3">
-        <v>0.009181117492904727</v>
+        <v>0.01131639353840441</v>
       </c>
       <c r="T3">
-        <v>0.01021042341458047</v>
+        <v>0.01297746789922568</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H4">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I4">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J4">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>19.7096195</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="N4">
-        <v>39.419239</v>
+        <v>0.027947</v>
       </c>
       <c r="O4">
-        <v>0.2924067120202865</v>
+        <v>0.0001248484115599408</v>
       </c>
       <c r="P4">
-        <v>0.2159901291810835</v>
+        <v>0.000142293017222847</v>
       </c>
       <c r="Q4">
-        <v>487.2570151300465</v>
+        <v>0.2721060182887778</v>
       </c>
       <c r="R4">
-        <v>2923.542090780279</v>
+        <v>2.448954164599</v>
       </c>
       <c r="S4">
-        <v>0.003920727796741318</v>
+        <v>2.284098815564831E-06</v>
       </c>
       <c r="T4">
-        <v>0.002906856812654267</v>
+        <v>2.619369762730205E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H5">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I5">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J5">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.030318</v>
+        <v>27.4428835</v>
       </c>
       <c r="N5">
-        <v>0.09095399999999999</v>
+        <v>54.885767</v>
       </c>
       <c r="O5">
-        <v>0.0004497898447522563</v>
+        <v>0.3677890736321797</v>
       </c>
       <c r="P5">
-        <v>0.000498364928088446</v>
+        <v>0.2794525848577725</v>
       </c>
       <c r="Q5">
-        <v>0.749515138266</v>
+        <v>801.5930611029232</v>
       </c>
       <c r="R5">
-        <v>6.745636244393999</v>
+        <v>4809.558366617539</v>
       </c>
       <c r="S5">
-        <v>6.030995440657963E-06</v>
+        <v>0.006728692635850034</v>
       </c>
       <c r="T5">
-        <v>6.707137459912815E-06</v>
+        <v>0.005144241545928198</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I6">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J6">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.511114</v>
+        <v>1.009860666666667</v>
       </c>
       <c r="N6">
-        <v>4.533342</v>
+        <v>3.029582</v>
       </c>
       <c r="O6">
-        <v>0.02241848840500565</v>
+        <v>0.01353413605720072</v>
       </c>
       <c r="P6">
-        <v>0.02483957450832654</v>
+        <v>0.01542521070970148</v>
       </c>
       <c r="Q6">
-        <v>2203.628813374699</v>
+        <v>1472.660608372664</v>
       </c>
       <c r="R6">
-        <v>19832.6593203723</v>
+        <v>13253.94547535397</v>
       </c>
       <c r="S6">
-        <v>0.01773156357737065</v>
+        <v>0.01236173449035291</v>
       </c>
       <c r="T6">
-        <v>0.01971947010452949</v>
+        <v>0.01417624899513041</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I7">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J7">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -874,10 +874,10 @@
         <v>138.461282</v>
       </c>
       <c r="O7">
-        <v>0.6847250097299556</v>
+        <v>0.6185519418990597</v>
       </c>
       <c r="P7">
-        <v>0.7586719313825014</v>
+        <v>0.704979911415303</v>
       </c>
       <c r="Q7">
         <v>67305.15159721009</v>
@@ -886,10 +886,10 @@
         <v>605746.3643748908</v>
       </c>
       <c r="S7">
-        <v>0.5415728671667052</v>
+        <v>0.5649695585984734</v>
       </c>
       <c r="T7">
-        <v>0.6022892407045015</v>
+        <v>0.6478984922068353</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>4374.842957</v>
       </c>
       <c r="I8">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J8">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>19.7096195</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="N8">
-        <v>39.419239</v>
+        <v>0.027947</v>
       </c>
       <c r="O8">
-        <v>0.2924067120202865</v>
+        <v>0.0001248484115599408</v>
       </c>
       <c r="P8">
-        <v>0.2159901291810835</v>
+        <v>0.000142293017222847</v>
       </c>
       <c r="Q8">
-        <v>28742.16335157495</v>
+        <v>13.58485956880878</v>
       </c>
       <c r="R8">
-        <v>172452.9801094497</v>
+        <v>122.263736119279</v>
       </c>
       <c r="S8">
-        <v>0.2312746564786205</v>
+        <v>0.0001140333530506495</v>
       </c>
       <c r="T8">
-        <v>0.1714687541782206</v>
+        <v>0.0001307717139416954</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,40 +980,40 @@
         <v>4374.842957</v>
       </c>
       <c r="I9">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J9">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.030318</v>
+        <v>27.4428835</v>
       </c>
       <c r="N9">
-        <v>0.09095399999999999</v>
+        <v>54.885767</v>
       </c>
       <c r="O9">
-        <v>0.0004497898447522563</v>
+        <v>0.3677890736321797</v>
       </c>
       <c r="P9">
-        <v>0.000498364928088446</v>
+        <v>0.2794525848577725</v>
       </c>
       <c r="Q9">
-        <v>44.21216292344199</v>
+        <v>40019.4351999155</v>
       </c>
       <c r="R9">
-        <v>397.909466310978</v>
+        <v>240116.611199493</v>
       </c>
       <c r="S9">
-        <v>0.0003557544596494527</v>
+        <v>0.335929154064838</v>
       </c>
       <c r="T9">
-        <v>0.0003956385121368242</v>
+        <v>0.2568256278525262</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H10">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I10">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J10">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.511114</v>
+        <v>1.009860666666667</v>
       </c>
       <c r="N10">
-        <v>4.533342</v>
+        <v>3.029582</v>
       </c>
       <c r="O10">
-        <v>0.02241848840500565</v>
+        <v>0.01353413605720072</v>
       </c>
       <c r="P10">
-        <v>0.02483957450832654</v>
+        <v>0.01542521070970148</v>
       </c>
       <c r="Q10">
-        <v>90.81763406606001</v>
+        <v>58.55781023991289</v>
       </c>
       <c r="R10">
-        <v>817.3587065945401</v>
+        <v>527.020292159216</v>
       </c>
       <c r="S10">
-        <v>0.0007307667437523687</v>
+        <v>0.0004915430605033822</v>
       </c>
       <c r="T10">
-        <v>0.0008126938661630457</v>
+        <v>0.0005636941015811661</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H11">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I11">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J11">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1122,22 +1122,22 @@
         <v>138.461282</v>
       </c>
       <c r="O11">
-        <v>0.6847250097299556</v>
+        <v>0.6185519418990597</v>
       </c>
       <c r="P11">
-        <v>0.7586719313825014</v>
+        <v>0.704979911415303</v>
       </c>
       <c r="Q11">
-        <v>2773.831323776927</v>
+        <v>2676.273319860979</v>
       </c>
       <c r="R11">
-        <v>24964.48191399234</v>
+        <v>24086.45987874881</v>
       </c>
       <c r="S11">
-        <v>0.02231971472324798</v>
+        <v>0.0224650404958512</v>
       </c>
       <c r="T11">
-        <v>0.02482200429230173</v>
+        <v>0.02576256657214311</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H12">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I12">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J12">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>19.7096195</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="N12">
-        <v>39.419239</v>
+        <v>0.027947</v>
       </c>
       <c r="O12">
-        <v>0.2924067120202865</v>
+        <v>0.0001248484115599408</v>
       </c>
       <c r="P12">
-        <v>0.2159901291810835</v>
+        <v>0.000142293017222847</v>
       </c>
       <c r="Q12">
-        <v>1184.543992929905</v>
+        <v>0.5401785205928888</v>
       </c>
       <c r="R12">
-        <v>7107.26395757943</v>
+        <v>4.861606685336</v>
       </c>
       <c r="S12">
-        <v>0.009531467819511426</v>
+        <v>4.534339691709293E-06</v>
       </c>
       <c r="T12">
-        <v>0.007066701286625873</v>
+        <v>5.19991175577649E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,46 +1222,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H13">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I13">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J13">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.030318</v>
+        <v>27.4428835</v>
       </c>
       <c r="N13">
-        <v>0.09095399999999999</v>
+        <v>54.885767</v>
       </c>
       <c r="O13">
-        <v>0.0004497898447522563</v>
+        <v>0.3677890736321797</v>
       </c>
       <c r="P13">
-        <v>0.000498364928088446</v>
+        <v>0.2794525848577725</v>
       </c>
       <c r="Q13">
-        <v>1.82210543322</v>
+        <v>1591.303847622249</v>
       </c>
       <c r="R13">
-        <v>16.39894889898</v>
+        <v>9547.823085733495</v>
       </c>
       <c r="S13">
-        <v>1.466162456114119E-05</v>
+        <v>0.01335764367291702</v>
       </c>
       <c r="T13">
-        <v>1.630535660071392E-05</v>
+        <v>0.01021222832676528</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H14">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I14">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J14">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.511114</v>
+        <v>1.009860666666667</v>
       </c>
       <c r="N14">
-        <v>4.533342</v>
+        <v>3.029582</v>
       </c>
       <c r="O14">
-        <v>0.02241848840500565</v>
+        <v>0.01353413605720072</v>
       </c>
       <c r="P14">
-        <v>0.02483957450832654</v>
+        <v>0.01542521070970148</v>
       </c>
       <c r="Q14">
-        <v>30.935589274788</v>
+        <v>29.77178815215667</v>
       </c>
       <c r="R14">
-        <v>185.613535648728</v>
+        <v>178.63072891294</v>
       </c>
       <c r="S14">
-        <v>0.0002489241222024525</v>
+        <v>0.0002499088645052311</v>
       </c>
       <c r="T14">
-        <v>0.0001845541996206892</v>
+        <v>0.0001910611218342776</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H15">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I15">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J15">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>138.461282</v>
       </c>
       <c r="O15">
-        <v>0.6847250097299556</v>
+        <v>0.6185519418990597</v>
       </c>
       <c r="P15">
-        <v>0.7586719313825014</v>
+        <v>0.704979911415303</v>
       </c>
       <c r="Q15">
-        <v>944.861726825948</v>
+        <v>1360.662941283657</v>
       </c>
       <c r="R15">
-        <v>5669.170360955688</v>
+        <v>8163.977647701939</v>
       </c>
       <c r="S15">
-        <v>0.00760285746825989</v>
+        <v>0.01142160923934674</v>
       </c>
       <c r="T15">
-        <v>0.005636815196816065</v>
+        <v>0.00873208510927655</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H16">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I16">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J16">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>19.7096195</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="N16">
-        <v>39.419239</v>
+        <v>0.027947</v>
       </c>
       <c r="O16">
-        <v>0.2924067120202865</v>
+        <v>0.0001248484115599408</v>
       </c>
       <c r="P16">
-        <v>0.2159901291810835</v>
+        <v>0.000142293017222847</v>
       </c>
       <c r="Q16">
-        <v>403.496158208019</v>
+        <v>0.2746359608316667</v>
       </c>
       <c r="R16">
-        <v>1613.984632832076</v>
+        <v>1.64781576499</v>
       </c>
       <c r="S16">
-        <v>0.003246743616286951</v>
+        <v>2.305335533524985E-06</v>
       </c>
       <c r="T16">
-        <v>0.001604773278367627</v>
+        <v>1.762482471807186E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H17">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I17">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J17">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.030318</v>
+        <v>27.4428835</v>
       </c>
       <c r="N17">
-        <v>0.09095399999999999</v>
+        <v>54.885767</v>
       </c>
       <c r="O17">
-        <v>0.0004497898447522563</v>
+        <v>0.3677890736321797</v>
       </c>
       <c r="P17">
-        <v>0.000498364928088446</v>
+        <v>0.2794525848577725</v>
       </c>
       <c r="Q17">
-        <v>0.620671369356</v>
+        <v>809.0459811085975</v>
       </c>
       <c r="R17">
-        <v>3.724028216136</v>
+        <v>3236.18392443439</v>
       </c>
       <c r="S17">
-        <v>4.994250292786615E-06</v>
+        <v>0.006791253566565626</v>
       </c>
       <c r="T17">
-        <v>3.70277439299752E-06</v>
+        <v>0.00346138055208764</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H18">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I18">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J18">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.511114</v>
+        <v>1.009860666666667</v>
       </c>
       <c r="N18">
-        <v>4.533342</v>
+        <v>3.029582</v>
       </c>
       <c r="O18">
-        <v>0.02241848840500565</v>
+        <v>0.01353413605720072</v>
       </c>
       <c r="P18">
-        <v>0.02483957450832654</v>
+        <v>0.01542521070970148</v>
       </c>
       <c r="Q18">
-        <v>423.3671637768541</v>
+        <v>21.841750221926</v>
       </c>
       <c r="R18">
-        <v>3810.304473991686</v>
+        <v>196.575751997334</v>
       </c>
       <c r="S18">
-        <v>0.003406636242690985</v>
+        <v>0.0001833429342191862</v>
       </c>
       <c r="T18">
-        <v>0.003788558253852139</v>
+        <v>0.0002102548868864112</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H19">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I19">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J19">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1618,22 +1618,22 @@
         <v>138.461282</v>
       </c>
       <c r="O19">
-        <v>0.6847250097299556</v>
+        <v>0.6185519418990597</v>
       </c>
       <c r="P19">
-        <v>0.7586719313825014</v>
+        <v>0.704979911415303</v>
       </c>
       <c r="Q19">
-        <v>12930.84886453464</v>
+        <v>998.2356433500258</v>
       </c>
       <c r="R19">
-        <v>116377.6397808117</v>
+        <v>8984.120790150233</v>
       </c>
       <c r="S19">
-        <v>0.1040484528788379</v>
+        <v>0.00837934002698398</v>
       </c>
       <c r="T19">
-        <v>0.1157134477743017</v>
+        <v>0.009609299627822412</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,7 +1647,7 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H20">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I20">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J20">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>19.7096195</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="N20">
-        <v>39.419239</v>
+        <v>0.027947</v>
       </c>
       <c r="O20">
-        <v>0.2924067120202865</v>
+        <v>0.0001248484115599408</v>
       </c>
       <c r="P20">
-        <v>0.2159901291810835</v>
+        <v>0.000142293017222847</v>
       </c>
       <c r="Q20">
-        <v>5522.022631539365</v>
+        <v>0.201483700871</v>
       </c>
       <c r="R20">
-        <v>33132.13578923618</v>
+        <v>1.813353307839</v>
       </c>
       <c r="S20">
-        <v>0.04443311630912622</v>
+        <v>1.69128446849222E-06</v>
       </c>
       <c r="T20">
-        <v>0.03294304362521516</v>
+        <v>1.939539290837658E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1709,7 +1709,7 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H21">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I21">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J21">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.030318</v>
+        <v>27.4428835</v>
       </c>
       <c r="N21">
-        <v>0.09095399999999999</v>
+        <v>54.885767</v>
       </c>
       <c r="O21">
-        <v>0.0004497898447522563</v>
+        <v>0.3677890736321797</v>
       </c>
       <c r="P21">
-        <v>0.000498364928088446</v>
+        <v>0.2794525848577725</v>
       </c>
       <c r="Q21">
-        <v>8.494161043698</v>
+        <v>593.5478294791965</v>
       </c>
       <c r="R21">
-        <v>76.447449393282</v>
+        <v>3561.286976875179</v>
       </c>
       <c r="S21">
-        <v>6.834851480821783E-05</v>
+        <v>0.004982329692008952</v>
       </c>
       <c r="T21">
-        <v>7.60111474979976E-05</v>
+        <v>0.0038091065804652</v>
       </c>
     </row>
   </sheetData>
